--- a/results/synechocystis_sp_pcc_6803/Nitrogen_deprivation_Study/BAR_condition-specific_enrichment_analysis.xlsx
+++ b/results/synechocystis_sp_pcc_6803/Nitrogen_deprivation_Study/BAR_condition-specific_enrichment_analysis.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e159.35-EX_no3_e0.08-no_N_7d_28_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e159.35-EX_no3_e0.08-no_N_3d_28_Presence" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e159.35-EX_no3_e0.08-no_N_7d_28" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bg11-EX_photon_e159.35-EX_no3_e0.08-no_N_3d_28" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,482 +458,482 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.984828343678318e-55</v>
+        <v>7.768939111247325e-18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8764044943820225</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8764044943820225</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.397222879193351e-45</v>
+        <v>7.84870348958926e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6850393700787402</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6850393700787402</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5.657250432672518e-38</v>
+        <v>0.002389114905474689</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8285714285714286</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.965781584184192e-27</v>
+        <v>0.003692268490279067</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8235294117647058</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8235294117647058</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.337711849995248e-19</v>
+        <v>0.01357674472082738</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7894736842105263</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7894736842105263</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.779964938421485e-14</v>
+        <v>0.02092877254799022</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8695652173913043</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8695652173913043</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.253511780845009e-14</v>
+        <v>0.02092877254799022</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7666666666666667</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7666666666666667</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.016233866662684e-14</v>
+        <v>0.02375996188109924</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8076923076923077</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.376325146921168e-14</v>
+        <v>0.05065768622881921</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9444444444444444</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.602754596547687e-11</v>
+        <v>0.06239711184060674</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7037037037037037</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8.881063376907509e-11</v>
+        <v>0.07637328825818915</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6.164798521442025e-10</v>
+        <v>0.07637328825818915</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.001256590502574e-09</v>
+        <v>0.08709702299245581</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9230769230769231</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.16091623777316e-09</v>
+        <v>0.1174341959238822</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7777777777777778</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.360358134138306e-09</v>
+        <v>0.1714140941160786</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.875</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6956521739130435</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.956149340701165e-08</v>
+        <v>0.1714140941160786</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.956149340701165e-08</v>
+        <v>0.203065996514702</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.470439720846526e-07</v>
+        <v>0.203065996514702</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6842105263157895</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8.017423390686959e-07</v>
+        <v>0.2653340219374577</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7692307692307693</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.408456398882602e-06</v>
+        <v>0.2771317975236672</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.408456398882602e-06</v>
+        <v>0.3019593623078491</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.408456398882602e-06</v>
+        <v>0.3227387342523477</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.408456398882602e-06</v>
+        <v>0.3227387342523477</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.408456398882602e-06</v>
+        <v>0.3517930290678802</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6.978462715839132e-06</v>
+        <v>0.3649428519996419</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -941,18 +941,18 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.211897146823695e-05</v>
+        <v>0.4976169137236984</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6875</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6923076923076923</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -960,345 +960,345 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.954264133503635e-05</v>
+        <v>0.5905602110586582</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6428571428571429</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5.94394926616288e-05</v>
+        <v>0.7234393384274389</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8571428571428571</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6.667790550037215e-05</v>
+        <v>0.7891409792761027</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6.667790550037215e-05</v>
+        <v>0.8049211034632335</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.0001126060743616959</v>
+        <v>0.8761945702797391</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.000270631296078072</v>
+        <v>0.8925617012120243</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6363636363636364</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0005678252371097675</v>
+        <v>0.8976625994192001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5833333333333334</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.00202169396155877</v>
+        <v>0.9196098813075024</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.00202169396155877</v>
+        <v>0.9333913501319594</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.002538025407029615</v>
+        <v>0.9373943744767297</v>
       </c>
       <c r="D37" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0.625</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.003136561853749694</v>
+        <v>0.9582662419292776</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.02146129891767879</v>
+        <v>0.9855872951779017</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.02146129891767879</v>
+        <v>0.9855872951779017</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02490046921981839</v>
+        <v>0.9941476275415544</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.2155008831574096</v>
+        <v>0.9974192868766019</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3333333333333333</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5435519682041865</v>
+        <v>0.9982924290115279</v>
       </c>
       <c r="D43" t="n">
         <v>0.1666666666666667</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1666666666666667</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.5475932323059554</v>
+        <v>0.999973654932247</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0.9999999997307671</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.3853211009174312</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1327,16 +1327,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1346,16 +1346,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1365,16 +1365,16 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Vitamin B6 metabolism</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1403,16 +1403,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1422,7 +1422,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>PHB byosynthesis</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Hydrogen production</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Vitamin B6 metabolism</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Nucleotide sugars metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,64 +1544,64 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.330797367384448e-54</v>
+        <v>5.580273168252003e-17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8764044943820225</v>
+        <v>0.9901960784313726</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8764044943820225</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.749164187256297e-44</v>
+        <v>3.143702222158653e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6850393700787402</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6850393700787402</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.764775794835049e-34</v>
+        <v>0.004865379041361945</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1533,716 +1609,716 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8.043306230710409e-30</v>
+        <v>0.005393816576251496</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8627450980392157</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.06809962404701e-21</v>
+        <v>0.007142611718752418</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8421052631578947</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.576912384239659e-16</v>
+        <v>0.02252413477920041</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8846153846153846</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8846153846153846</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.346773456924034e-15</v>
+        <v>0.02252413477920041</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.40941939027403e-14</v>
+        <v>0.03299418713797109</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8695652173913043</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8695652173913043</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.465409101510093e-13</v>
+        <v>0.03299418713797109</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9444444444444444</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.198170461781937e-12</v>
+        <v>0.06913871369517272</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8947368421052632</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Arginine and proline metabolism</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9.360415994713264e-12</v>
+        <v>0.1014027185386135</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7407407407407407</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.215747439466408e-11</v>
+        <v>0.1026495892733375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7826086956521739</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.320595152550335e-10</v>
+        <v>0.1033693547742575</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.370494588658904e-10</v>
+        <v>0.1033693547742575</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9285714285714286</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8.86582037633701e-10</v>
+        <v>0.1510918337245535</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.481091627044625e-09</v>
+        <v>0.1719401411409968</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9230769230769231</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.920815294098196e-09</v>
+        <v>0.2071772678661966</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8125</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7777777777777778</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Urea cycle and metabolism of amino groups</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.977384072975368e-08</v>
+        <v>0.2273217790603074</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.977384072975368e-08</v>
+        <v>0.2554762641815176</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.09822139268945e-06</v>
+        <v>0.2763584639461146</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7692307692307693</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Alanine, aspartate and glutamate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.09822139268945e-06</v>
+        <v>0.2763584639461146</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7692307692307693</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.773341414855362e-06</v>
+        <v>0.3222849209593011</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.773341414855362e-06</v>
+        <v>0.3450519463105097</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sterol biosynthesis</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3897042284760337</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E25" t="n">
         <v>6</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Riboflavin metabolism</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1.773341414855362e-06</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>Aminosugars metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.773341414855362e-06</v>
+        <v>0.3897042284760337</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Valine leucine and isoleucine biosynthesis</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.773341414855362e-06</v>
+        <v>0.4003732531274807</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.773341414855362e-06</v>
+        <v>0.4195557026015024</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Alanine, aspartate and glutamate metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8.992339463394197e-06</v>
+        <v>0.4490059329245475</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.232623953850048e-05</v>
+        <v>0.5135418588821297</v>
       </c>
       <c r="D30" t="n">
-        <v>0.875</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="E30" t="n">
-        <v>0.875</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.858046138563382e-05</v>
+        <v>0.516009495512106</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7.858046138563382e-05</v>
+        <v>0.7184049763479707</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7.858046138563382e-05</v>
+        <v>0.7805989187677577</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0001397163160925615</v>
+        <v>0.8060095947285075</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aminosugars metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.002295115818128152</v>
+        <v>0.8215054599189777</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.002753178187338857</v>
+        <v>0.8559709058346313</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5454545454545454</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.00346079016760929</v>
+        <v>0.9235596869004431</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Arginine and proline metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.00480858050386197</v>
+        <v>0.9668843846540796</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.006060519164996041</v>
+        <v>0.9692698894902714</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6666666666666666</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.02291453166632507</v>
+        <v>0.9692698894902714</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.02291453166632507</v>
+        <v>0.9904236399806893</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.02725107145339464</v>
+        <v>0.9904236399806893</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2251,83 +2327,83 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5603843023363024</v>
+        <v>0.9977333817332085</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.5626783570753038</v>
+        <v>0.9999819936622258</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1666666666666667</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0.9999977616872667</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0.9999999999991894</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.3853211009174312</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2337,16 +2413,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2356,16 +2432,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2375,12 +2451,12 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2394,16 +2470,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2413,16 +2489,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2432,7 +2508,83 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>PHB byosynthesis</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Hydrogen production</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Fructose and mannose metabolism</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Inositol phosphate metabolism</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
